--- a/Testes/UC08_Test_Scenario.xlsx
+++ b/Testes/UC08_Test_Scenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blest\Desktop\Sprints\upskill_java1_labprg_grupo2\Testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CBA08DE-53BC-4B2A-9CC4-3052D6A80383}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4564812-96C1-46EF-89FD-AFA4B3FD55E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="61">
   <si>
     <t>Project Name</t>
   </si>
@@ -184,9 +184,6 @@
     <t>Verificar Publicação de Tarefa</t>
   </si>
   <si>
-    <t>Pub_Tarefa_001</t>
-  </si>
-  <si>
     <t>O utilizador deve conseguir publicar a tarefa</t>
   </si>
   <si>
@@ -196,61 +193,10 @@
     <t>Passa</t>
   </si>
   <si>
-    <t>UC07_TS_001</t>
-  </si>
-  <si>
-    <t>UC07_TS_002</t>
-  </si>
-  <si>
-    <t>Pub_Tarefa_002</t>
-  </si>
-  <si>
     <t>Dados para testar</t>
   </si>
   <si>
-    <t>Mensagem de erro: "Não há tarefas para publicar"</t>
-  </si>
-  <si>
-    <t>Popup: Lista de tarefas inválida</t>
-  </si>
-  <si>
     <t>Não passa</t>
-  </si>
-  <si>
-    <t>UC07_TS_003</t>
-  </si>
-  <si>
-    <t>Pub_Tarefa_003</t>
-  </si>
-  <si>
-    <t>Lista de Tarefas válida
-Período de Publicitação válido 
-Período de apresentação válido
-Período de seriação e adjudicação válido</t>
-  </si>
-  <si>
-    <t>Lista de Tarefas inválida
-Período de Publicitação válido 
-Período de apresentação válido
-Período de seriação e adjudicação válido</t>
-  </si>
-  <si>
-    <t>Lista de Tarefas válida
-Período de Publicitação inválido 
-Período de apresentação válido
-Período de seriação e adjudicação válido</t>
-  </si>
-  <si>
-    <t>Mensagem de erro: "O período de publicitação não pode ser posterior aos restantes"</t>
-  </si>
-  <si>
-    <t>Popup: O período de publicitação não pode ser posterior aos restantes</t>
-  </si>
-  <si>
-    <t>1. Seleccionar uma tarefa da Lista de tarefas vazia
-2. Seleccionar um período de publicitação válido
-3. Seleccionar um período de apresentação válido
-4. Seleccionar um período de seriação e adjudicação válido</t>
   </si>
   <si>
     <t>1. Seleccionar uma tarefa da Lista de tarefas não vazia
@@ -265,136 +211,16 @@
 4. Período de seriação e adjudicação: 16/02/2021</t>
   </si>
   <si>
-    <t>1. Lista de tarefas vazia
-2. Período de publicitação: 02/01/2021
-3. Período de apresentação: 01/02/2021
-4. Período de seriação e adjudicação: 16/02/2021</t>
-  </si>
-  <si>
-    <t>UC07_TS_004</t>
-  </si>
-  <si>
-    <t>Pub_Tarefa_004</t>
-  </si>
-  <si>
-    <t>Lista de Tarefas válida
-Período de Publicitação válido
-Período de apresentação inválido
+    <t>Freelancer válido
+Anúncios em Período de Publicitação válidos
+Período de apresentação válido
 Período de seriação e adjudicação válido</t>
   </si>
   <si>
-    <t>1. Seleccionar uma tarefa da Lista de tarefas não vazia
-2. Seleccionar um Período de publicitação superior um dos períodos subsequentes
-3. Seleccionar um Período de apresentação válido
-4. Período de seriação e adjudicação válido</t>
-  </si>
-  <si>
-    <t>1. Seleccionar uma tarefa da Lista de tarefas não vazia
-2. Seleccionar um Período de publicitação válido
-3. Seleccionar um Período de apresentação anterior ao período anterior
-4. Período de seriação e adjudicação válido</t>
-  </si>
-  <si>
-    <t>1. Seleccionar uma tarefa da Lista de tarefas não vazia
-2. Período de publicitação: 01/02/2021
-3. Período de apresentação: 21/01/2021
-4. Período de seriação e adjudicação: 16/02/2021</t>
-  </si>
-  <si>
-    <t>1. Seleccionar uma tarefa da Lista de tarefas não vazia
-2. Período de publicitação: 01/02/2021
-3. Período de apresentação: 01/01/2021
-4. Período de seriação e adjudicação: 16/02/2021</t>
-  </si>
-  <si>
-    <t>Mensagem de erro: "O período de apresentação não pode ser anterior ao período de publicitação"</t>
-  </si>
-  <si>
-    <t>Popup: O período de apresentação não pode ser anterior ao período de publicitação</t>
-  </si>
-  <si>
-    <t>UC07_TS_005</t>
-  </si>
-  <si>
-    <t>Pub_Tarefa_005</t>
-  </si>
-  <si>
-    <t>1. Seleccionar uma tarefa da Lista de tarefas não vazia
-2. Seleccionar um Período de publicitação válido
-3. Seleccionar um Período de apresentação posterior ao período posterior
-4. Período de seriação e adjudicação válido</t>
-  </si>
-  <si>
-    <t>1. Seleccionar uma tarefa da Lista de tarefas não vazia
-2. Período de publicitação: 01/02/2021
-3. Período de apresentação: 20/02/2021
-4. Período de seriação e adjudicação: 16/02/2021</t>
-  </si>
-  <si>
-    <t>Mensagem de erro: "O período de apresentação não pode ser posterior ao período de seriação e adjudicação"</t>
-  </si>
-  <si>
-    <t>Popup: O período de apresentação não pode ser posterior ao período de seriação e adjudicação</t>
-  </si>
-  <si>
-    <t>UC07_TS_006</t>
-  </si>
-  <si>
-    <t>Pub_Tarefa_006</t>
-  </si>
-  <si>
-    <t>Lista de Tarefas válida
-Período de Publicitação válido
-Período de apresentação válido
-Período de seriação e adjudicação inválido</t>
-  </si>
-  <si>
-    <t>1. Seleccionar uma tarefa da Lista de tarefas não vazia
-2. Seleccionar um Período de publicitação válido
-3. Seleccionar um Período de apresentação válido
-4. Período de seriação e adjudicação anterior aos anteriores</t>
-  </si>
-  <si>
-    <t>1. Seleccionar uma tarefa da Lista de tarefas não vazia
-2. Período de publicitação: 01/02/2021
-3. Período de apresentação: 20/02/2021
-4. Período de seriação e adjudicação: 21/01/2021</t>
-  </si>
-  <si>
-    <t>Mensagem de erro: "O período de seriação e adjudicação não pode ser anterior aos períodos anteriores"</t>
-  </si>
-  <si>
-    <t>Popup: O período de seriação e adjudicação não pode ser anterior aos períodos anteriores</t>
-  </si>
-  <si>
-    <t>UC07_TS_007</t>
-  </si>
-  <si>
-    <t>Pub_Tarefa_007</t>
-  </si>
-  <si>
-    <t>Lista de Tarefas válida
-Período de Publicitação válido mas formato errado
-Período de apresentação válido
-Período de seriação e adjudicação inválido</t>
-  </si>
-  <si>
-    <t>1. Seleccionar uma tarefa da Lista de tarefas não vazia
-2. Seleccionar um Período de publicitação válido em formato errado
-3. Seleccionar um Período de apresentação válido
-4. Período de seriação e adjudicação anterior aos anteriores</t>
-  </si>
-  <si>
-    <t>1. Seleccionar uma tarefa da Lista de tarefas não vazia
-2. Período de publicitação: 2021/02/01
-3. Período de apresentação: 20/02/2021
-4. Período de seriação e adjudicação: 21/01/2021</t>
-  </si>
-  <si>
-    <t>Mensagem de erro: "O formato da data está errado. Introduza a data pretendida usando o formato dd/mm/aaaa"</t>
-  </si>
-  <si>
-    <t>Popup: O formato da data está errado. Introduza a data pretendida usando o formato dd/mm/aaaa</t>
+    <t>Efe_Cand_001</t>
+  </si>
+  <si>
+    <t>UC08_TS_001</t>
   </si>
 </sst>
 </file>
@@ -862,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -918,235 +744,109 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>96</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="170.5" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="124" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>98</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="139.5" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="124" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>99</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1160,22 +860,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">

--- a/Testes/UC08_Test_Scenario.xlsx
+++ b/Testes/UC08_Test_Scenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blest\Desktop\Sprints\upskill_java1_labprg_grupo2\Testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4564812-96C1-46EF-89FD-AFA4B3FD55E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2322B328-9B3A-45C1-880D-2E00FB424305}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,16 +211,14 @@
 4. Período de seriação e adjudicação: 16/02/2021</t>
   </si>
   <si>
+    <t>Efe_Cand_001</t>
+  </si>
+  <si>
+    <t>UC08_TS_001</t>
+  </si>
+  <si>
     <t>Freelancer válido
-Anúncios em Período de Publicitação válidos
-Período de apresentação válido
-Período de seriação e adjudicação válido</t>
-  </si>
-  <si>
-    <t>Efe_Cand_001</t>
-  </si>
-  <si>
-    <t>UC08_TS_001</t>
+Anúncios em Período de Publicitação válidos</t>
   </si>
 </sst>
 </file>
@@ -688,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -744,7 +742,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -772,7 +770,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -781,22 +779,21 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -821,10 +818,9 @@
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -837,7 +833,7 @@
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>51</v>
       </c>
     </row>
